--- a/modelos/OBAGEM4428025/OBAGEM4428025_Sell Out_metricas.xlsx
+++ b/modelos/OBAGEM4428025/OBAGEM4428025_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45033</v>
       </c>
       <c r="B2" t="n">
-        <v>94.99457467058038</v>
+        <v>94.71770578928495</v>
       </c>
       <c r="C2" t="n">
-        <v>75.78762703746</v>
+        <v>75.20579666565119</v>
       </c>
       <c r="D2" t="n">
-        <v>114.0822693731945</v>
+        <v>114.8059590752203</v>
       </c>
       <c r="E2" t="n">
         <v>72</v>
@@ -496,13 +496,13 @@
         <v>45040</v>
       </c>
       <c r="B3" t="n">
-        <v>92.17721172662358</v>
+        <v>91.96780217533833</v>
       </c>
       <c r="C3" t="n">
-        <v>74.04698474629127</v>
+        <v>73.03973140570537</v>
       </c>
       <c r="D3" t="n">
-        <v>111.943983032257</v>
+        <v>113.4582898982378</v>
       </c>
       <c r="E3" t="n">
         <v>113</v>
@@ -516,13 +516,13 @@
         <v>45047</v>
       </c>
       <c r="B4" t="n">
-        <v>93.89015188585024</v>
+        <v>94.10229083476932</v>
       </c>
       <c r="C4" t="n">
-        <v>74.9623258674755</v>
+        <v>75.55422015598195</v>
       </c>
       <c r="D4" t="n">
-        <v>113.6089961786271</v>
+        <v>113.7021205907443</v>
       </c>
       <c r="E4" t="n">
         <v>108</v>
@@ -536,13 +536,13 @@
         <v>45055</v>
       </c>
       <c r="B5" t="n">
-        <v>84.43606826317816</v>
+        <v>84.13972053979198</v>
       </c>
       <c r="C5" t="n">
-        <v>64.50992317485424</v>
+        <v>64.754125537954</v>
       </c>
       <c r="D5" t="n">
-        <v>104.2517947187727</v>
+        <v>104.4246142167711</v>
       </c>
       <c r="E5" t="n">
         <v>81</v>
@@ -617,25 +617,25 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>387.1422631877115</v>
+        <v>383.8646072351835</v>
       </c>
       <c r="C2" t="n">
-        <v>19.6759310627912</v>
+        <v>19.59246302115136</v>
       </c>
       <c r="D2" t="n">
-        <v>19.30907035270219</v>
+        <v>19.21587092639243</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2114294323469614</v>
+        <v>0.2101106094181778</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1842724625962515</v>
+        <v>0.1861256444660324</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2060480820356774</v>
+        <v>0.2050949516179582</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -643,22 +643,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>11.80656510922016</v>
+        <v>9.857845067991645</v>
       </c>
       <c r="C3" t="n">
-        <v>3.436068263178157</v>
+        <v>3.139720539791981</v>
       </c>
       <c r="D3" t="n">
-        <v>3.436068263178157</v>
+        <v>3.139720539791981</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04242059584170564</v>
+        <v>0.0387619819727405</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04242059584170564</v>
+        <v>0.0387619819727405</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0415395300341883</v>
+        <v>0.038025019414217</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>

--- a/modelos/OBAGEM4428025/OBAGEM4428025_Sell Out_metricas.xlsx
+++ b/modelos/OBAGEM4428025/OBAGEM4428025_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45033</v>
       </c>
       <c r="B2" t="n">
-        <v>94.71770578928495</v>
+        <v>94.71770578928496</v>
       </c>
       <c r="C2" t="n">
-        <v>75.20579666565119</v>
+        <v>75.47265886367563</v>
       </c>
       <c r="D2" t="n">
-        <v>114.8059590752203</v>
+        <v>114.9636941592734</v>
       </c>
       <c r="E2" t="n">
         <v>72</v>
@@ -496,13 +496,13 @@
         <v>45040</v>
       </c>
       <c r="B3" t="n">
-        <v>91.96780217533833</v>
+        <v>91.96780217533838</v>
       </c>
       <c r="C3" t="n">
-        <v>73.03973140570537</v>
+        <v>72.18523697513844</v>
       </c>
       <c r="D3" t="n">
-        <v>113.4582898982378</v>
+        <v>111.186080771588</v>
       </c>
       <c r="E3" t="n">
         <v>113</v>
@@ -516,13 +516,13 @@
         <v>45047</v>
       </c>
       <c r="B4" t="n">
-        <v>94.10229083476932</v>
+        <v>94.10229083485473</v>
       </c>
       <c r="C4" t="n">
-        <v>75.55422015598195</v>
+        <v>74.09083653221833</v>
       </c>
       <c r="D4" t="n">
-        <v>113.7021205907443</v>
+        <v>111.8137142103667</v>
       </c>
       <c r="E4" t="n">
         <v>108</v>
@@ -536,13 +536,13 @@
         <v>45055</v>
       </c>
       <c r="B5" t="n">
-        <v>84.13972053979198</v>
+        <v>84.13972053977453</v>
       </c>
       <c r="C5" t="n">
-        <v>64.754125537954</v>
+        <v>64.93362851803728</v>
       </c>
       <c r="D5" t="n">
-        <v>104.4246142167711</v>
+        <v>102.6906964614768</v>
       </c>
       <c r="E5" t="n">
         <v>81</v>
@@ -617,25 +617,25 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>383.8646072351835</v>
+        <v>383.8646072343919</v>
       </c>
       <c r="C2" t="n">
-        <v>19.59246302115136</v>
+        <v>19.59246302113116</v>
       </c>
       <c r="D2" t="n">
-        <v>19.21587092639243</v>
+        <v>19.21587092636396</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2101106094181778</v>
+        <v>0.2101106094179142</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1861256444660324</v>
+        <v>0.1861256444660321</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2050949516179582</v>
+        <v>0.205094951617657</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="3">
@@ -643,22 +643,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>9.857845067991645</v>
+        <v>9.857845067882064</v>
       </c>
       <c r="C3" t="n">
-        <v>3.139720539791981</v>
+        <v>3.13972053977453</v>
       </c>
       <c r="D3" t="n">
-        <v>3.139720539791981</v>
+        <v>3.13972053977453</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0387619819727405</v>
+        <v>0.03876198197252505</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0387619819727405</v>
+        <v>0.03876198197252505</v>
       </c>
       <c r="G3" t="n">
-        <v>0.038025019414217</v>
+        <v>0.03802501941400967</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>

--- a/modelos/OBAGEM4428025/OBAGEM4428025_Sell Out_metricas.xlsx
+++ b/modelos/OBAGEM4428025/OBAGEM4428025_Sell Out_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>94.71770578928496</v>
       </c>
       <c r="C2" t="n">
-        <v>75.47265886367563</v>
+        <v>74.84627244144457</v>
       </c>
       <c r="D2" t="n">
-        <v>114.9636941592734</v>
+        <v>115.0992795858352</v>
       </c>
       <c r="E2" t="n">
         <v>72</v>
@@ -499,10 +499,10 @@
         <v>91.96780217533838</v>
       </c>
       <c r="C3" t="n">
-        <v>72.18523697513844</v>
+        <v>72.86425119590294</v>
       </c>
       <c r="D3" t="n">
-        <v>111.186080771588</v>
+        <v>111.9064520626544</v>
       </c>
       <c r="E3" t="n">
         <v>113</v>
@@ -519,10 +519,10 @@
         <v>94.10229083485473</v>
       </c>
       <c r="C4" t="n">
-        <v>74.09083653221833</v>
+        <v>74.00169804897249</v>
       </c>
       <c r="D4" t="n">
-        <v>111.8137142103667</v>
+        <v>112.3063486667881</v>
       </c>
       <c r="E4" t="n">
         <v>108</v>
@@ -539,10 +539,10 @@
         <v>84.13972053977453</v>
       </c>
       <c r="C5" t="n">
-        <v>64.93362851803728</v>
+        <v>63.93407178585851</v>
       </c>
       <c r="D5" t="n">
-        <v>102.6906964614768</v>
+        <v>102.5934526446947</v>
       </c>
       <c r="E5" t="n">
         <v>81</v>
